--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2660326005517322</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.601015009109956</v>
+        <v>-1.604523497731335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1506534192876523</v>
+        <v>0.1470363233469033</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2449936010616099</v>
+        <v>-0.2440964101624685</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2759072945108292</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.533738283827322</v>
+        <v>-1.538682277887327</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09946002138646874</v>
+        <v>0.09685974179808</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2483934823636194</v>
+        <v>-0.2475781404587856</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2914102516913201</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489450894820845</v>
+        <v>-1.496434030652495</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09528100061941541</v>
+        <v>0.09298450672143771</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2581807332598671</v>
+        <v>-0.2571796570987198</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.299335419780452</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.558976106418257</v>
+        <v>-1.565980491508045</v>
       </c>
       <c r="F5" t="n">
-        <v>0.122075528121317</v>
+        <v>0.1198309768543422</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354031025555248</v>
+        <v>-0.2352457006433947</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.298031129324872</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.593164588742469</v>
+        <v>-1.599085261667241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1072356758456941</v>
+        <v>0.1059355360514998</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2610769284430603</v>
+        <v>-0.260672405528886</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2923493785191347</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.479857248276517</v>
+        <v>-1.485369463239312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1203330889540372</v>
+        <v>0.1196389465215436</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2528983250887819</v>
+        <v>-0.2525488928438532</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2878541229303277</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.264973731855669</v>
+        <v>-1.269086643819627</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1572312451955679</v>
+        <v>0.1576955808363516</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2587599722965057</v>
+        <v>-0.2579414823534293</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2847779309085914</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006903065794132</v>
+        <v>-1.008480232953676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1789904855284286</v>
+        <v>0.1801080391045521</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2558747952471616</v>
+        <v>-0.2546376162178192</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2804798542114446</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5939977127893687</v>
+        <v>-0.5944038097226644</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1680368864632971</v>
+        <v>0.1696754403685711</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1644195622422277</v>
+        <v>-0.1639630966970505</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2687017105681357</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2203523317176476</v>
+        <v>-0.2188223851317433</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1379699732082114</v>
+        <v>0.1396337114194262</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1285303522574507</v>
+        <v>-0.1276457535112797</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2413336708803728</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2411012800549537</v>
+        <v>0.2435079552914225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1025576910171885</v>
+        <v>0.1026363919732535</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03855784526478207</v>
+        <v>-0.0381501743123652</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1916809030148728</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7658886992113308</v>
+        <v>0.7697906926130352</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.006606831121499412</v>
+        <v>-0.008059650770459946</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05522536202055551</v>
+        <v>0.05568812364221791</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1175873382971862</v>
       </c>
       <c r="E14" t="n">
-        <v>1.310943188573576</v>
+        <v>1.315852554212912</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2307597461476878</v>
+        <v>-0.2313295410695986</v>
       </c>
       <c r="G14" t="n">
-        <v>0.159090161777824</v>
+        <v>0.1595198689979391</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.02198364547726883</v>
       </c>
       <c r="E15" t="n">
-        <v>1.872498120384416</v>
+        <v>1.877709697695042</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4425786473393639</v>
+        <v>-0.4434191735501385</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2926755905834921</v>
+        <v>0.293031318904906</v>
       </c>
     </row>
     <row r="16">
@@ -801,10 +801,10 @@
         <v>0.08563793129162732</v>
       </c>
       <c r="E16" t="n">
-        <v>2.344740059214412</v>
+        <v>2.351300570911993</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6673548739375873</v>
+        <v>-0.66922166061545</v>
       </c>
       <c r="G16" t="n">
         <v>0.4368211136739665</v>
@@ -824,13 +824,13 @@
         <v>0.1960806641749904</v>
       </c>
       <c r="E17" t="n">
-        <v>2.80027221105268</v>
+        <v>2.808079345894331</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8809004741053303</v>
+        <v>-0.8841862390210455</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5557587205368103</v>
+        <v>0.5558925121621209</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3059839246229303</v>
       </c>
       <c r="E18" t="n">
-        <v>3.223776221810722</v>
+        <v>3.232121671191858</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.208859163171738</v>
+        <v>-1.211883640913318</v>
       </c>
       <c r="G18" t="n">
-        <v>0.67724466435704</v>
+        <v>0.6776019666975752</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4154522770057776</v>
       </c>
       <c r="E19" t="n">
-        <v>3.598186576175395</v>
+        <v>3.6065666539772</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.507795300670044</v>
+        <v>-1.511326612568682</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8381881195100354</v>
+        <v>0.8383581135751358</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5246333300588532</v>
       </c>
       <c r="E20" t="n">
-        <v>3.723791728036069</v>
+        <v>3.735371786711478</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.843368307235744</v>
+        <v>-1.846326676174229</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014182345500908</v>
+        <v>1.013861245600163</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6322999839967328</v>
       </c>
       <c r="E21" t="n">
-        <v>3.974049750189029</v>
+        <v>3.986109884696435</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.079723018490255</v>
+        <v>-2.082583798243219</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181818529957674</v>
+        <v>1.181012632167568</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7355115640953382</v>
       </c>
       <c r="E22" t="n">
-        <v>4.178769825143639</v>
+        <v>4.190603300897577</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.375286033011613</v>
+        <v>-2.376883662419733</v>
       </c>
       <c r="G22" t="n">
-        <v>1.3219849327095</v>
+        <v>1.321141258460483</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8318481826346998</v>
       </c>
       <c r="E23" t="n">
-        <v>4.40379789480127</v>
+        <v>4.414776678172343</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.507491834057461</v>
+        <v>-2.509811151232697</v>
       </c>
       <c r="G23" t="n">
-        <v>1.492778599523595</v>
+        <v>1.491021994184223</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.920075598541727</v>
       </c>
       <c r="E24" t="n">
-        <v>4.531682226349587</v>
+        <v>4.542723970485512</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.622515642375191</v>
+        <v>-2.62526230574186</v>
       </c>
       <c r="G24" t="n">
-        <v>1.596567846363041</v>
+        <v>1.594598748442294</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9983245310945617</v>
       </c>
       <c r="E25" t="n">
-        <v>4.672649804834156</v>
+        <v>4.682665288502992</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.818355101447422</v>
+        <v>-2.819543485884004</v>
       </c>
       <c r="G25" t="n">
-        <v>1.659755269968536</v>
+        <v>1.657762561760969</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.063822897761607</v>
       </c>
       <c r="E26" t="n">
-        <v>4.785711598317184</v>
+        <v>4.794308890757728</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.908234741311934</v>
+        <v>-2.909210633167141</v>
       </c>
       <c r="G26" t="n">
-        <v>1.702851913509749</v>
+        <v>1.700516069133738</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.113461259931062</v>
       </c>
       <c r="E27" t="n">
-        <v>4.895447489396904</v>
+        <v>4.901570423778764</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980790726727411</v>
+        <v>-2.98094734162998</v>
       </c>
       <c r="G27" t="n">
-        <v>1.753097751899909</v>
+        <v>1.750163780257805</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.143863212507288</v>
       </c>
       <c r="E28" t="n">
-        <v>4.894537706344792</v>
+        <v>4.899650120450777</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069573275264376</v>
+        <v>-3.068414797191099</v>
       </c>
       <c r="G28" t="n">
-        <v>1.793828644701807</v>
+        <v>1.789939243453073</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.15180176138586</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902905191993627</v>
+        <v>4.906404236500278</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083003593416874</v>
+        <v>-3.080881815641361</v>
       </c>
       <c r="G29" t="n">
-        <v>1.725151042401216</v>
+        <v>1.721807825787573</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.136025060988632</v>
       </c>
       <c r="E30" t="n">
-        <v>4.844427233599063</v>
+        <v>4.847693323275762</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.072680389009824</v>
+        <v>-3.070149366262772</v>
       </c>
       <c r="G30" t="n">
-        <v>1.689054061892427</v>
+        <v>1.685701401164056</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.098613246822125</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718948003268094</v>
+        <v>4.721518376493179</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.060844552227203</v>
+        <v>-3.05690793040483</v>
       </c>
       <c r="G31" t="n">
-        <v>1.630283335941302</v>
+        <v>1.626859844352473</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.043479132376679</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638046568471482</v>
+        <v>4.639050792670871</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.021798646894657</v>
+        <v>-3.017421299718321</v>
       </c>
       <c r="G32" t="n">
-        <v>1.592782330376313</v>
+        <v>1.589220325104809</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9746283710571378</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559621065752674</v>
+        <v>4.558561750884039</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.952685041297466</v>
+        <v>-2.94812746893174</v>
       </c>
       <c r="G33" t="n">
-        <v>1.563345024769747</v>
+        <v>1.558838608025463</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8965005323021363</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356936197521907</v>
+        <v>4.35604530269925</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.880387195017883</v>
+        <v>-2.875190570888909</v>
       </c>
       <c r="G34" t="n">
-        <v>1.512973264849883</v>
+        <v>1.508123711937155</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8130630484252759</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132186729248745</v>
+        <v>4.13111639624626</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.848514881830665</v>
+        <v>-2.842500554768175</v>
       </c>
       <c r="G35" t="n">
-        <v>1.392094892410475</v>
+        <v>1.387904853509573</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7270586932215396</v>
       </c>
       <c r="E36" t="n">
-        <v>3.980762941741376</v>
+        <v>3.978549870856828</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.82315664677695</v>
+        <v>-2.81662210639487</v>
       </c>
       <c r="G36" t="n">
-        <v>1.365523875623798</v>
+        <v>1.36061293596534</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6403171526812986</v>
       </c>
       <c r="E37" t="n">
-        <v>3.784722008221618</v>
+        <v>3.781873033612064</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.759437204708456</v>
+        <v>-2.753000253511896</v>
       </c>
       <c r="G37" t="n">
-        <v>1.278570337305784</v>
+        <v>1.274155213670536</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5542931541192704</v>
       </c>
       <c r="E38" t="n">
-        <v>3.714542791679306</v>
+        <v>3.70982860441101</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.728050476420159</v>
+        <v>-2.720860357074058</v>
       </c>
       <c r="G38" t="n">
-        <v>1.23530212568035</v>
+        <v>1.230137768943362</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4699422571173598</v>
       </c>
       <c r="E39" t="n">
-        <v>3.504216060614623</v>
+        <v>3.498763658378437</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.745200201756291</v>
+        <v>-2.737080624119062</v>
       </c>
       <c r="G39" t="n">
-        <v>1.160005772974689</v>
+        <v>1.154743827052181</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3875428343813292</v>
       </c>
       <c r="E40" t="n">
-        <v>3.258209464108296</v>
+        <v>3.252387167378604</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.710179063316911</v>
+        <v>-2.701192988153406</v>
       </c>
       <c r="G40" t="n">
-        <v>1.095870789858171</v>
+        <v>1.090589955706207</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3075996370334649</v>
       </c>
       <c r="E41" t="n">
-        <v>3.086139267786826</v>
+        <v>3.079895133932626</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.649311743896214</v>
+        <v>-2.640301271436328</v>
       </c>
       <c r="G41" t="n">
-        <v>1.063888295332462</v>
+        <v>1.058404412713851</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2299392990202009</v>
       </c>
       <c r="E42" t="n">
-        <v>2.971695485515295</v>
+        <v>2.963587713021475</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.618468839214327</v>
+        <v>-2.609358416540239</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9798246561211564</v>
+        <v>0.9745973386193169</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.153837865817069</v>
       </c>
       <c r="E43" t="n">
-        <v>2.838121074843476</v>
+        <v>2.829072038915119</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.601519801316161</v>
+        <v>-2.591785280060477</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9277324933017101</v>
+        <v>0.9225602664691162</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.07900749045349539</v>
       </c>
       <c r="E44" t="n">
-        <v>2.708917715271509</v>
+        <v>2.698338732757247</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.529910588402147</v>
+        <v>-2.520686049341764</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8637202836766538</v>
+        <v>0.8584599117732669</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.005509198458284826</v>
       </c>
       <c r="E45" t="n">
-        <v>2.512423464244816</v>
+        <v>2.501997161585321</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.464538426256287</v>
+        <v>-2.455492538366172</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8335998537714439</v>
+        <v>0.8279931976613708</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.06580560579367492</v>
       </c>
       <c r="E46" t="n">
-        <v>2.386300460093235</v>
+        <v>2.375050945433299</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.425025824254275</v>
+        <v>-2.415558099239652</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7703368772481266</v>
+        <v>0.7648435505147871</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1337721891104924</v>
       </c>
       <c r="E47" t="n">
-        <v>2.223147082093933</v>
+        <v>2.211803126286719</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.290120580415397</v>
+        <v>-2.281779853091624</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7140468054321714</v>
+        <v>0.7086353276931396</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1975986785011545</v>
       </c>
       <c r="E48" t="n">
-        <v>2.13499571522461</v>
+        <v>2.122762438613861</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.249207101395428</v>
+        <v>-2.240335929627777</v>
       </c>
       <c r="G48" t="n">
-        <v>0.665319895494066</v>
+        <v>0.6598108285695136</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2564106589600461</v>
       </c>
       <c r="E49" t="n">
-        <v>1.98163431017892</v>
+        <v>1.96901225084521</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.197295163765371</v>
+        <v>-2.188332698888685</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5909852684715197</v>
+        <v>0.5855029598720294</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3095713572019663</v>
       </c>
       <c r="E50" t="n">
-        <v>1.88815016652663</v>
+        <v>1.875090529877198</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.149862884554535</v>
+        <v>-2.140883892477075</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5343347462767867</v>
+        <v>0.5290633562395507</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3568969525151883</v>
       </c>
       <c r="E51" t="n">
-        <v>1.764145792112319</v>
+        <v>1.751056249099582</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.099783892191232</v>
+        <v>-2.090579028369866</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4894515910328975</v>
+        <v>0.4844399141506762</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3988371035807843</v>
       </c>
       <c r="E52" t="n">
-        <v>1.652270809046751</v>
+        <v>1.638979791586488</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.98207087220476</v>
+        <v>-1.974429796380406</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4537953358780731</v>
+        <v>0.4486451453131772</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4361550805732701</v>
       </c>
       <c r="E53" t="n">
-        <v>1.608840473451822</v>
+        <v>1.594674301360116</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.922465916119346</v>
+        <v>-1.914712297927819</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3826874480541932</v>
+        <v>0.3781070524112082</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4701252365252054</v>
       </c>
       <c r="E54" t="n">
-        <v>1.565186627141669</v>
+        <v>1.549633744204097</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.911939663245648</v>
+        <v>-1.903714626327291</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3484273478599624</v>
+        <v>0.3439728737466815</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.5023401792532712</v>
       </c>
       <c r="E55" t="n">
-        <v>1.509891335410376</v>
+        <v>1.493340524349899</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.847111324706197</v>
+        <v>-1.839607975554957</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3215053248092354</v>
+        <v>0.3168997448603096</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.5337896431176268</v>
       </c>
       <c r="E56" t="n">
-        <v>1.452105945429185</v>
+        <v>1.435292273175451</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.785524678547065</v>
+        <v>-1.778842180367583</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2144043417385728</v>
+        <v>0.2111099197176904</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.565037880002543</v>
       </c>
       <c r="E57" t="n">
-        <v>1.461214794084152</v>
+        <v>1.442748401753053</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.783075504794321</v>
+        <v>-1.77621278142545</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2150119131193948</v>
+        <v>0.2111351040236312</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5972517146477482</v>
       </c>
       <c r="E58" t="n">
-        <v>1.44591532822511</v>
+        <v>1.426186572558727</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.768337963761583</v>
+        <v>-1.761797914312578</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2104393875720163</v>
+        <v>0.2063138834550872</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6311148649292008</v>
       </c>
       <c r="E59" t="n">
-        <v>1.434022039744562</v>
+        <v>1.413485812268952</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.731965529906566</v>
+        <v>-1.726119622890056</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1366163167638928</v>
+        <v>0.1330763477600875</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6667160100759558</v>
       </c>
       <c r="E60" t="n">
-        <v>1.466659326224731</v>
+        <v>1.444355475275901</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.76420852459685</v>
+        <v>-1.757863653518887</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1163460985197825</v>
+        <v>0.1126314133935129</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.7038347357549729</v>
       </c>
       <c r="E61" t="n">
-        <v>1.464000807928854</v>
+        <v>1.44056681125093</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.782585197838036</v>
+        <v>-1.776211994415889</v>
       </c>
       <c r="G61" t="n">
-        <v>0.128571505034925</v>
+        <v>0.1243468377133539</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7417687467979407</v>
       </c>
       <c r="E62" t="n">
-        <v>1.474294892982161</v>
+        <v>1.449253822781388</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826232748071704</v>
+        <v>-1.819323591138755</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04122446193658589</v>
+        <v>0.03774902771675397</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7794104230711471</v>
       </c>
       <c r="E63" t="n">
-        <v>1.460487597250111</v>
+        <v>1.434305363186396</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.787214388073781</v>
+        <v>-1.780982059362991</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007087135233816572</v>
+        <v>0.003874562207241868</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8158814954365666</v>
       </c>
       <c r="E64" t="n">
-        <v>1.46173264637506</v>
+        <v>1.434668961603416</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.81473217736192</v>
+        <v>-1.808437674895839</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02308051524503241</v>
+        <v>-0.02613883439771965</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.850725720095691</v>
       </c>
       <c r="E65" t="n">
-        <v>1.471397123779846</v>
+        <v>1.442537483190798</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.840194297677641</v>
+        <v>-1.833884055020347</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02634030884524613</v>
+        <v>-0.02971815387955741</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8826796567725999</v>
       </c>
       <c r="E66" t="n">
-        <v>1.434972747293827</v>
+        <v>1.406432632586403</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.845531009508411</v>
+        <v>-1.839604827516714</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03475973712508351</v>
+        <v>-0.03824146742140064</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.9100089235432962</v>
       </c>
       <c r="E67" t="n">
-        <v>1.400311272223665</v>
+        <v>1.370943223458436</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.857411705835989</v>
+        <v>-1.8519073609688</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05378018418688103</v>
+        <v>-0.05718321352713311</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.932196473706233</v>
       </c>
       <c r="E68" t="n">
-        <v>1.350203947516179</v>
+        <v>1.32064229439903</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.887421954402708</v>
+        <v>-1.882337872640906</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.06091049080637314</v>
+        <v>-0.06420333880813418</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.947959076413197</v>
       </c>
       <c r="E69" t="n">
-        <v>1.246727930481871</v>
+        <v>1.218430214719128</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.9088805570834</v>
+        <v>-1.903975913501427</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0832678584053281</v>
+        <v>-0.08659848286600036</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.9554303707975963</v>
       </c>
       <c r="E70" t="n">
-        <v>1.263151245993523</v>
+        <v>1.23389810062415</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.914045700829948</v>
+        <v>-1.909678584777899</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05222977535239984</v>
+        <v>-0.05612862071586165</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9540830832102714</v>
       </c>
       <c r="E71" t="n">
-        <v>1.256039827603486</v>
+        <v>1.226860661132814</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.948668612431639</v>
+        <v>-1.944989342735598</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07184205360380641</v>
+        <v>-0.07576923131145163</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9443588891832282</v>
       </c>
       <c r="E72" t="n">
-        <v>1.239838448787938</v>
+        <v>1.210646690164296</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.978019346986533</v>
+        <v>-1.974419565256118</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.106786852115803</v>
+        <v>-0.1103220990622443</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9269101546270961</v>
       </c>
       <c r="E73" t="n">
-        <v>1.244785590886186</v>
+        <v>1.215538741593298</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.977779309070534</v>
+        <v>-1.974332207194886</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09415220062912237</v>
+        <v>-0.0978920700613328</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.9027629843325108</v>
       </c>
       <c r="E74" t="n">
-        <v>1.239706231181749</v>
+        <v>1.210575859303837</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.985862684267974</v>
+        <v>-1.98285709475585</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07517740012184257</v>
+        <v>-0.07945243605529524</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8734149774769528</v>
       </c>
       <c r="E75" t="n">
-        <v>1.184447141890246</v>
+        <v>1.156500432391552</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.018582606752012</v>
+        <v>-2.015565212096479</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04722754258490626</v>
+        <v>-0.05175284755864574</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8400345703638635</v>
       </c>
       <c r="E76" t="n">
-        <v>1.220345795989751</v>
+        <v>1.192997213757151</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.022060402000526</v>
+        <v>-2.019679698079559</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02734295902551467</v>
+        <v>-0.03211381098217705</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8033300728028875</v>
       </c>
       <c r="E77" t="n">
-        <v>1.155933785507884</v>
+        <v>1.130607817846156</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.019472714565107</v>
+        <v>-2.017039281003576</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02894216245275617</v>
+        <v>-0.03350681790452817</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7640882422340405</v>
       </c>
       <c r="E78" t="n">
-        <v>1.176144191025385</v>
+        <v>1.151989293589904</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.030107574758175</v>
+        <v>-2.027797701697667</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02363614399485155</v>
+        <v>-0.02803395341976567</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7222281440589108</v>
       </c>
       <c r="E79" t="n">
-        <v>1.162835859354787</v>
+        <v>1.140469047641105</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.006819961858532</v>
+        <v>-2.004224404327507</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04523798241558219</v>
+        <v>-0.04931626595887227</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6769321426647574</v>
       </c>
       <c r="E80" t="n">
-        <v>1.142584529340133</v>
+        <v>1.122954936878392</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969013596584011</v>
+        <v>-1.966931956296091</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02882411101865862</v>
+        <v>-0.03274971470718253</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6276591199918474</v>
       </c>
       <c r="E81" t="n">
-        <v>1.167698004420485</v>
+        <v>1.149754186437657</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.922383280115478</v>
+        <v>-1.920713245827778</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008873418656172402</v>
+        <v>-0.012540883208803</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.5741583435299933</v>
       </c>
       <c r="E82" t="n">
-        <v>1.226860661132814</v>
+        <v>1.209894309024314</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.950389802340781</v>
+        <v>-1.947691146557311</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01887968649060133</v>
+        <v>0.01505009796847675</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5157625031377771</v>
       </c>
       <c r="E83" t="n">
-        <v>1.314004655764506</v>
+        <v>1.29826603857062</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.845992197110952</v>
+        <v>-1.844082124907254</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01147235250576029</v>
+        <v>0.008229873115880871</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4525304282871329</v>
       </c>
       <c r="E84" t="n">
-        <v>1.308893815677642</v>
+        <v>1.295960100557914</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.785217744818411</v>
+        <v>-1.78312272536796</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0220214286567175</v>
+        <v>0.01901662615415449</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3864192192215758</v>
       </c>
       <c r="E85" t="n">
-        <v>1.417951304516082</v>
+        <v>1.406152457182812</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757179742210682</v>
+        <v>-1.754160773536027</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01598663934565066</v>
+        <v>0.01360042635775882</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3199451272862155</v>
       </c>
       <c r="E86" t="n">
-        <v>1.662741184241643</v>
+        <v>1.650701511982814</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.65294740898859</v>
+        <v>-1.650063018948806</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03200228390488516</v>
+        <v>0.03008355459601962</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2554037846526761</v>
       </c>
       <c r="E87" t="n">
-        <v>1.597674381805315</v>
+        <v>1.589522536776099</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533129138427378</v>
+        <v>-1.529798513966706</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05288636960630268</v>
+        <v>0.05119115101266184</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1962248630402891</v>
       </c>
       <c r="E88" t="n">
-        <v>1.7448577617999</v>
+        <v>1.736705916770684</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.333536430760405</v>
+        <v>-1.330829117871768</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08956888522821521</v>
+        <v>0.0879224612273347</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1458886138173931</v>
       </c>
       <c r="E89" t="n">
-        <v>1.912020166501154</v>
+        <v>1.904025723384068</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158777809779754</v>
+        <v>-1.156721353797775</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1132720391758823</v>
+        <v>0.1116303372323657</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1079878390749976</v>
       </c>
       <c r="E90" t="n">
-        <v>1.9331797055488</v>
+        <v>1.927034734899242</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9187579950012938</v>
+        <v>-0.9175727586029544</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1420702930191997</v>
+        <v>0.1403451680622541</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08489035544833343</v>
       </c>
       <c r="E91" t="n">
-        <v>1.9715904941659</v>
+        <v>1.965960227769008</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6670841426487236</v>
+        <v>-0.6668181334172238</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09534396138426744</v>
+        <v>0.09456482191922359</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.07778006499067275</v>
       </c>
       <c r="E92" t="n">
-        <v>1.987014307535526</v>
+        <v>1.980789061910782</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4619280643975133</v>
+        <v>-0.4619154722445429</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1065509775279283</v>
+        <v>0.1055499013667811</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08616895763015635</v>
       </c>
       <c r="E93" t="n">
-        <v>1.960460604959183</v>
+        <v>1.954402205361297</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2413654869870118</v>
+        <v>-0.2418660250675854</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09183862080113081</v>
+        <v>0.09120901315261053</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1071531729092092</v>
       </c>
       <c r="E94" t="n">
-        <v>1.848025271086432</v>
+        <v>1.842736566838862</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05836057982986603</v>
+        <v>-0.05903111197554012</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06657561390425476</v>
+        <v>0.06601841113531433</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1357873877113182</v>
       </c>
       <c r="E95" t="n">
-        <v>1.796665027158391</v>
+        <v>1.791533724822951</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07288113450418532</v>
+        <v>0.07250809197243706</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05404169964133739</v>
+        <v>0.05311775041713389</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1660066659243843</v>
       </c>
       <c r="E96" t="n">
-        <v>1.668760233361497</v>
+        <v>1.664200299967089</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1462099633082205</v>
+        <v>0.1461721868493092</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005366504053914469</v>
+        <v>-0.005800933331393459</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1927109134950992</v>
       </c>
       <c r="E97" t="n">
-        <v>1.503296195292126</v>
+        <v>1.500088344322915</v>
       </c>
       <c r="F97" t="n">
-        <v>0.150588884503679</v>
+        <v>0.1516481993723143</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02055893661270871</v>
+        <v>-0.02096818158424689</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2160465840767015</v>
       </c>
       <c r="E98" t="n">
-        <v>1.389845619086137</v>
+        <v>1.387205989019715</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1786363312261359</v>
+        <v>0.179516207914943</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05864705130994275</v>
+        <v>-0.05906574039620873</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2383031256600883</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250403265130108</v>
+        <v>1.248791469549897</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1817371488950983</v>
+        <v>0.1828688686433135</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09823992828714025</v>
+        <v>-0.0983564057021165</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2643205226840653</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091449370146437</v>
+        <v>1.090674952738757</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2374668699038704</v>
+        <v>0.2373692807183498</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.145309396090516</v>
+        <v>-0.1449709819794364</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2921852706533938</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9100704247415952</v>
+        <v>0.9111297396102305</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2195970308197437</v>
+        <v>0.2197890611525424</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.170975351882445</v>
+        <v>-0.1705487927005725</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3245473038092867</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8500357614360656</v>
+        <v>0.8504418583693611</v>
       </c>
       <c r="F102" t="n">
-        <v>0.257722921975889</v>
+        <v>0.2574254323619631</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2089595813176732</v>
+        <v>-0.2083945084531263</v>
       </c>
     </row>
   </sheetData>
